--- a/csv-excel/generated-file.xlsx
+++ b/csv-excel/generated-file.xlsx
@@ -25,12 +25,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,94 +432,94 @@
           <t>s.no</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>EPIC ID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SPRINT ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>STORY ID</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>STORY DESCRIPTION</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ASSIGNED TO</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ESTIMATED
 STORY
 POINTS</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>STORY
 PLANNED
 START</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>STORY
 PLANNED
 END</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ESTIMATED
 EFFORT
 (IN HRS))</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Time spent
 (IN Secs)</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>EFFORT
 CONSUMED
 (IN HRS)</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PENDING
 EFFORT
 (IN HRS)</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>STORY
 ACTUAL
 START</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>STORY
 ACTUAL
 END</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>STORY
 Effort
@@ -521,21 +527,21 @@
 %</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">STORY
 Schedule
 Progress % </t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>STORY
 Schedule
 Overrun %</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -572,7 +578,6 @@
           <t>balachandras</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>20-05-2021</t>

--- a/csv-excel/generated-file.xlsx
+++ b/csv-excel/generated-file.xlsx
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -35,6 +35,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -50,9 +55,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,99 +444,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>SPRINT/STORY BOARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>s.no</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>EPIC ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>SPRINT ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>STORY ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>STORY DESCRIPTION</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>ASSIGNED TO</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>ESTIMATED
 STORY
 POINTS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>STORY
 PLANNED
 START</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>STORY
 PLANNED
 END</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>ESTIMATED
 EFFORT
 (IN HRS))</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Time spent
 (IN Secs)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>EFFORT
 CONSUMED
 (IN HRS)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>PENDING
 EFFORT
 (IN HRS)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>STORY
 ACTUAL
 START</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>STORY
 ACTUAL
 END</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>STORY
 Effort
@@ -527,1198 +551,1216 @@
 %</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">STORY
 Schedule
 Progress % </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>STORY
 Schedule
 Overrun %</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PCS-28018</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PCS-2122</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PCS-27974</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>QA: Testing the throughput with standard/less packet sizes/varied user load in ESP mode</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>balachandras</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>17-06-2021</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>16</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>16</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>17-06-2021</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>PCS-28018</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PCS-27972</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QA:SM HW : ESP Max Users/Tunnel Setup count </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27974</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>QA: Testing the throughput with standard/less packet sizes/varied user load in ESP mode</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>balachandras</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>16</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>16</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>PCS-28018</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PCS-27539</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Planning to validate RAID and LVM testing</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27972</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QA:SM HW : ESP Max Users/Tunnel Setup count </t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>balachandras</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>16</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28018</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>PCS-2122</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27539</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Planning to validate RAID and LVM testing</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>balachandras</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PCS-28018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PCS-2122</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PCS-25735</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>QA: Testing the HW-RAID controller functionality</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>balachandras</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>16</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>43200</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>16</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="J5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PCS-28042</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28018</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PCS-28004</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SM HW - ISA8000F Platform Testing, Code Review</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>balajit</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>PCS-25735</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>QA: Testing the HW-RAID controller functionality</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>balachandras</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>03-06-2021</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>16</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>16</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>17-06-2021</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>43200</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>03-06-2021</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>17-06-2021</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>PCS-28042</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PCS-28003</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SM HW - ISA8000F Platform addition - License and UI Changes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28004</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>SM HW - ISA8000F Platform Testing, Code Review</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>balajit</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>16</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>16</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>PCS-28042</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PCS-28002</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SM HW - ISA8000F Platform addition - Platform changes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28003</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>SM HW - ISA8000F Platform addition - License and UI Changes</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>balajit</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>24</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>82800</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>23</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="J8" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="P8" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PCS-28017</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28042</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PCS-27971</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SM-HW : ISA8000 - Make Coreboot/init changes as platform specific  </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>kalaimani.k</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28002</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>SM HW - ISA8000F Platform addition - Platform changes</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>balajit</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>16</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>57600</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>16</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="J9" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>82800</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="P9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>PCS-28017</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PCS-27007</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SM-HW: ISA8000 Upgrade and Rollover Confirmation with LVM </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27971</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SM-HW : ISA8000 - Make Coreboot/init changes as platform specific  </t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>kalaimani.k</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>32</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>28800</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>24</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="J10" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>57600</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>PCS-28017</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PCS-27969</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LVM: Support and bug fixes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27007</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SM-HW: ISA8000 Upgrade and Rollover Confirmation with LVM </t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>kalaimani.k</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>16</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>16</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="J11" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>28800</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>03-06-2021</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="P11" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PCS-28018</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28017</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PCS-27566</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QA: SMHW: Tunnel setup rate test for 25k Users on SSL mode </t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>karthikr</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27969</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>LVM: Support and bug fixes</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>kalaimani.k</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>17-06-2021</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>03-06-2021</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>8</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>17-06-2021</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
+          <t>03-06-2021</t>
+        </is>
+      </c>
+      <c r="P12" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>PCS-28018</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PCS-27538</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QA: SM HW : Perform throughput tests with IMIX traffic(SSL)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27566</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QA: SMHW: Tunnel setup rate test for 25k Users on SSL mode </t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>karthikr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>16</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>16</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>PCS-28018</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PCS-27978</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>QA: SM HW : SSL Max Throughput (25k Users/Tunnels, 1350 bytes)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27538</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>QA: SM HW : Perform throughput tests with IMIX traffic(SSL)</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>karthikr</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>16</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>16</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>PCS-28018</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>PCS-2122</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>PCS-27978</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>QA: SM HW : SSL Max Throughput (25k Users/Tunnels, 1350 bytes)</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>karthikr</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>17-06-2021</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>17-06-2021</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>PCS-28018</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>PCS-2122</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>PCS-27975</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>QA: Build image from Build plan</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>karthikr</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>14400</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>20-05-2021</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>20-05-2021</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>17-06-2021</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
+      <c r="S16" s="3" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>